--- a/biology/Zoologie/Bryconadenos/Bryconadenos.xlsx
+++ b/biology/Zoologie/Bryconadenos/Bryconadenos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bryconadenos est un genre de poissons d'eau douce téléostéens de la famille des Crenuchidae (ordre des Characiformes).
 </t>
@@ -511,10 +523,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (16 septembre 2023)[1] :
-Bryconadenos tanaothoros Weitzman, Menezes, Evers &amp; Burns, 2005 - espèce type[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (16 septembre 2023) :
+Bryconadenos tanaothoros Weitzman, Menezes, Evers &amp; Burns, 2005 - espèce type
 Bryconadenos weitzmani Menezes, Netto-Ferreira &amp; Ferreira, 2009</t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Bryconadenos a été créé en 2005 par Stanley H. Weitzman (d), Naércio A. Menezes (d), Hans-Georg Evers (d) et John R. Burns (d)[3],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Bryconadenos a été créé en 2005 par Stanley H. Weitzman (d), Naércio A. Menezes (d), Hans-Georg Evers (d) et John R. Burns (d),.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Bryconadenos, est composé du genre Brycon, préfixe ou suffixe souvent utilisé pour caractériser de petits characidés, et du grec ancien ἀδένος, adénos, « glande », et fait référence aux glandes de la nageoire anale des spécimens mâles sexuellement actifs qui pourraient sécréter une phéromone pendant la parade nuptiale[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Bryconadenos, est composé du genre Brycon, préfixe ou suffixe souvent utilisé pour caractériser de petits characidés, et du grec ancien ἀδένος, adénos, « glande », et fait référence aux glandes de la nageoire anale des spécimens mâles sexuellement actifs qui pourraient sécréter une phéromone pendant la parade nuptiale.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Stanley H. Weitzman, Naércio A. Menezes, Hans-Georg Evers et John R. Burns, « Putative relationships among inseminating and externally fertilizing characids, with a description of a new genus and species of Brazilian inseminating fish bearing an anal-fin gland in males (Characiformes: Characidae) », Neotropical Ichthyology, Sociedade Brasileira de Ictiologia (d), vol. 3, no 3,‎ septembre 2005, p. 329-360 (ISSN 1679-6225 et 1982-0224, OCLC 56597180, DOI 10.1590/S1679-62252005000300002, lire en ligne)</t>
         </is>
